--- a/metadata/naive_ct.xlsx
+++ b/metadata/naive_ct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mireillefarjo/Documents/Grad/2022/SARS_data_complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC31185F-B3DB-AD44-959A-DFA3A7666373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D620B-2532-574F-9970-CE56146FC502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="860" windowWidth="20340" windowHeight="14860" xr2:uid="{73713509-7DFC-3A4F-96D5-F0F56C0CEE5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>user_id</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>ct</t>
-  </si>
-  <si>
-    <t>sequenced</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>shared_SNPs</t>
@@ -426,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67B88D6-C8DE-4047-9EC6-0E6A55AB0C7C}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,13 +442,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>432686</v>
       </c>
@@ -464,17 +455,14 @@
       <c r="C2">
         <v>23.42</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>432686</v>
       </c>
@@ -484,17 +472,14 @@
       <c r="C3">
         <v>25.55</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>432686</v>
       </c>
@@ -504,17 +489,14 @@
       <c r="C4">
         <v>23.2</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>432686</v>
       </c>
@@ -524,17 +506,14 @@
       <c r="C5">
         <v>27.31</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>432686</v>
       </c>
@@ -544,17 +523,14 @@
       <c r="C6">
         <v>26.49</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>432686</v>
       </c>
@@ -564,17 +540,14 @@
       <c r="C7">
         <v>25.79</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>432870</v>
       </c>
@@ -584,17 +557,14 @@
       <c r="C8">
         <v>21.34</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>432870</v>
       </c>
@@ -604,17 +574,14 @@
       <c r="C9">
         <v>22.43</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>432870</v>
       </c>
@@ -624,17 +591,14 @@
       <c r="C10">
         <v>25.05</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
+      <c r="D10">
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>432870</v>
       </c>
@@ -644,17 +608,14 @@
       <c r="C11">
         <v>26.77</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
+      <c r="D11">
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>432870</v>
       </c>
@@ -664,17 +625,14 @@
       <c r="C12">
         <v>26.51</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>432870</v>
       </c>
@@ -684,17 +642,14 @@
       <c r="C13">
         <v>26.63</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
+      <c r="D13">
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>433227</v>
       </c>
@@ -704,17 +659,14 @@
       <c r="C14">
         <v>26.6</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>433227</v>
       </c>
@@ -724,17 +676,14 @@
       <c r="C15">
         <v>23.87</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>433227</v>
       </c>
@@ -744,17 +693,14 @@
       <c r="C16">
         <v>24.64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>433227</v>
       </c>
@@ -764,17 +710,14 @@
       <c r="C17">
         <v>23.54</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>433227</v>
       </c>
@@ -784,17 +727,14 @@
       <c r="C18">
         <v>25.08</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
+      <c r="D18">
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>435786</v>
       </c>
@@ -804,17 +744,14 @@
       <c r="C19">
         <v>22.35</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>435786</v>
       </c>
@@ -824,17 +761,14 @@
       <c r="C20">
         <v>24.04</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>435786</v>
       </c>
@@ -844,17 +778,14 @@
       <c r="C21">
         <v>25.8</v>
       </c>
-      <c r="D21" t="s">
-        <v>4</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>435786</v>
       </c>
@@ -864,17 +795,14 @@
       <c r="C22">
         <v>25.46</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>435786</v>
       </c>
@@ -884,17 +812,14 @@
       <c r="C23">
         <v>27.94</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>435786</v>
       </c>
@@ -904,17 +829,14 @@
       <c r="C24">
         <v>26.35</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>435805</v>
       </c>
@@ -924,17 +846,14 @@
       <c r="C25">
         <v>23.71</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>435805</v>
       </c>
@@ -944,17 +863,14 @@
       <c r="C26">
         <v>24.34</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>435805</v>
       </c>
@@ -964,17 +880,14 @@
       <c r="C27">
         <v>25.47</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
+      <c r="D27">
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>435805</v>
       </c>
@@ -984,17 +897,14 @@
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>435805</v>
       </c>
@@ -1004,17 +914,14 @@
       <c r="C29">
         <v>25.1</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
+      <c r="D29">
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>435805</v>
       </c>
@@ -1024,17 +931,14 @@
       <c r="C30">
         <v>21.78</v>
       </c>
-      <c r="D30" t="s">
-        <v>4</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>435805</v>
       </c>
@@ -1044,17 +948,14 @@
       <c r="C31">
         <v>27.43</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>435805</v>
       </c>
@@ -1064,17 +965,14 @@
       <c r="C32">
         <v>26.88</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>435805</v>
       </c>
@@ -1084,17 +982,14 @@
       <c r="C33">
         <v>27.94</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>438577</v>
       </c>
@@ -1104,17 +999,14 @@
       <c r="C34">
         <v>22.78</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>438577</v>
       </c>
@@ -1124,17 +1016,14 @@
       <c r="C35">
         <v>21.48</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>438577</v>
       </c>
@@ -1144,17 +1033,14 @@
       <c r="C36">
         <v>21.17</v>
       </c>
-      <c r="D36" t="s">
-        <v>4</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>438577</v>
       </c>
@@ -1164,17 +1050,14 @@
       <c r="C37">
         <v>24.82</v>
       </c>
-      <c r="D37" t="s">
-        <v>4</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>442978</v>
       </c>
@@ -1184,17 +1067,14 @@
       <c r="C38">
         <v>22.26</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>442978</v>
       </c>
@@ -1204,17 +1084,14 @@
       <c r="C39">
         <v>24.73</v>
       </c>
-      <c r="D39" t="s">
-        <v>4</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>442978</v>
       </c>
@@ -1224,17 +1101,14 @@
       <c r="C40">
         <v>25.63</v>
       </c>
-      <c r="D40" t="s">
-        <v>4</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>442978</v>
       </c>
@@ -1244,17 +1118,14 @@
       <c r="C41">
         <v>27.48</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>442978</v>
       </c>
@@ -1264,17 +1135,14 @@
       <c r="C42">
         <v>27.61</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>444332</v>
       </c>
@@ -1284,17 +1152,14 @@
       <c r="C43">
         <v>23.99</v>
       </c>
-      <c r="D43" t="s">
-        <v>4</v>
+      <c r="D43">
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>444332</v>
       </c>
@@ -1304,17 +1169,14 @@
       <c r="C44">
         <v>23.93</v>
       </c>
-      <c r="D44" t="s">
-        <v>4</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>444332</v>
       </c>
@@ -1324,17 +1186,14 @@
       <c r="C45">
         <v>19.78</v>
       </c>
-      <c r="D45" t="s">
-        <v>4</v>
+      <c r="D45">
+        <v>3</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>444332</v>
       </c>
@@ -1344,17 +1203,14 @@
       <c r="C46">
         <v>25.88</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
+      <c r="D46">
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>444332</v>
       </c>
@@ -1364,17 +1220,14 @@
       <c r="C47">
         <v>25.63</v>
       </c>
-      <c r="D47" t="s">
-        <v>4</v>
+      <c r="D47">
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>444332</v>
       </c>
@@ -1384,17 +1237,14 @@
       <c r="C48">
         <v>22.71</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>444332</v>
       </c>
@@ -1404,17 +1254,14 @@
       <c r="C49">
         <v>26.5</v>
       </c>
-      <c r="D49" t="s">
-        <v>4</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>444332</v>
       </c>
@@ -1424,17 +1271,14 @@
       <c r="C50">
         <v>27.16</v>
       </c>
-      <c r="D50" t="s">
-        <v>4</v>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>444446</v>
       </c>
@@ -1444,17 +1288,14 @@
       <c r="C51">
         <v>22.46</v>
       </c>
-      <c r="D51" t="s">
-        <v>4</v>
+      <c r="D51">
+        <v>3</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>444446</v>
       </c>
@@ -1464,17 +1305,14 @@
       <c r="C52">
         <v>22.59</v>
       </c>
-      <c r="D52" t="s">
-        <v>4</v>
+      <c r="D52">
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>444446</v>
       </c>
@@ -1484,17 +1322,14 @@
       <c r="C53">
         <v>22.7</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
+      <c r="D53">
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>444446</v>
       </c>
@@ -1504,17 +1339,14 @@
       <c r="C54">
         <v>22.49</v>
       </c>
-      <c r="D54" t="s">
-        <v>4</v>
+      <c r="D54">
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>7</v>
-      </c>
-      <c r="F54">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>444446</v>
       </c>
@@ -1524,17 +1356,14 @@
       <c r="C55">
         <v>26.67</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
+      <c r="D55">
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>5</v>
-      </c>
-      <c r="F55">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>444446</v>
       </c>
@@ -1544,17 +1373,14 @@
       <c r="C56">
         <v>26.09</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>444446</v>
       </c>
@@ -1564,17 +1390,14 @@
       <c r="C57">
         <v>25.96</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57">
         <v>4</v>
       </c>
       <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>444446</v>
       </c>
@@ -1584,17 +1407,14 @@
       <c r="C58">
         <v>26.21</v>
       </c>
-      <c r="D58" t="s">
-        <v>4</v>
+      <c r="D58">
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>444633</v>
       </c>
@@ -1604,17 +1424,14 @@
       <c r="C59">
         <v>23.12</v>
       </c>
-      <c r="D59" t="s">
-        <v>4</v>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>444633</v>
       </c>
@@ -1624,17 +1441,14 @@
       <c r="C60">
         <v>24.41</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
+      <c r="D60">
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>444633</v>
       </c>
@@ -1644,17 +1458,14 @@
       <c r="C61">
         <v>22.58</v>
       </c>
-      <c r="D61" t="s">
-        <v>4</v>
+      <c r="D61">
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>444633</v>
       </c>
@@ -1664,17 +1475,14 @@
       <c r="C62">
         <v>26.94</v>
       </c>
-      <c r="D62" t="s">
-        <v>4</v>
+      <c r="D62">
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>444633</v>
       </c>
@@ -1684,17 +1492,14 @@
       <c r="C63">
         <v>26.33</v>
       </c>
-      <c r="D63" t="s">
-        <v>4</v>
+      <c r="D63">
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>445602</v>
       </c>
@@ -1704,17 +1509,14 @@
       <c r="C64">
         <v>16.37</v>
       </c>
-      <c r="D64" t="s">
-        <v>4</v>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>445602</v>
       </c>
@@ -1724,17 +1526,14 @@
       <c r="C65">
         <v>15.85</v>
       </c>
-      <c r="D65" t="s">
-        <v>4</v>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>445602</v>
       </c>
@@ -1744,17 +1543,14 @@
       <c r="C66">
         <v>18.64</v>
       </c>
-      <c r="D66" t="s">
-        <v>4</v>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>445602</v>
       </c>
@@ -1764,17 +1560,14 @@
       <c r="C67">
         <v>19.41</v>
       </c>
-      <c r="D67" t="s">
-        <v>4</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>445602</v>
       </c>
@@ -1784,17 +1577,14 @@
       <c r="C68">
         <v>16.82</v>
       </c>
-      <c r="D68" t="s">
-        <v>4</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>445602</v>
       </c>
@@ -1804,17 +1594,14 @@
       <c r="C69">
         <v>19.11</v>
       </c>
-      <c r="D69" t="s">
-        <v>4</v>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>445602</v>
       </c>
@@ -1824,17 +1611,14 @@
       <c r="C70">
         <v>21.08</v>
       </c>
-      <c r="D70" t="s">
-        <v>4</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>3</v>
-      </c>
-      <c r="F70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>445602</v>
       </c>
@@ -1844,17 +1628,14 @@
       <c r="C71">
         <v>27.11</v>
       </c>
-      <c r="D71" t="s">
-        <v>4</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>449650</v>
       </c>
@@ -1864,17 +1645,14 @@
       <c r="C72">
         <v>24.9</v>
       </c>
-      <c r="D72" t="s">
-        <v>4</v>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>11</v>
-      </c>
-      <c r="F72">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>449650</v>
       </c>
@@ -1884,17 +1662,14 @@
       <c r="C73">
         <v>26.24</v>
       </c>
-      <c r="D73" t="s">
-        <v>4</v>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>449650</v>
       </c>
@@ -1904,17 +1679,14 @@
       <c r="C74">
         <v>24.64</v>
       </c>
-      <c r="D74" t="s">
-        <v>4</v>
+      <c r="D74">
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>11</v>
-      </c>
-      <c r="F74">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>449650</v>
       </c>
@@ -1924,17 +1696,14 @@
       <c r="C75">
         <v>27.45</v>
       </c>
-      <c r="D75" t="s">
-        <v>4</v>
+      <c r="D75">
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>9</v>
-      </c>
-      <c r="F75">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>449650</v>
       </c>
@@ -1944,17 +1713,14 @@
       <c r="C76">
         <v>27.41</v>
       </c>
-      <c r="D76" t="s">
-        <v>4</v>
+      <c r="D76">
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>7</v>
-      </c>
-      <c r="F76">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>449650</v>
       </c>
@@ -1964,17 +1730,14 @@
       <c r="C77">
         <v>21.09</v>
       </c>
-      <c r="D77" t="s">
-        <v>4</v>
+      <c r="D77">
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>450241</v>
       </c>
@@ -1984,17 +1747,14 @@
       <c r="C78">
         <v>26.78</v>
       </c>
-      <c r="D78" t="s">
-        <v>4</v>
+      <c r="D78">
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>450241</v>
       </c>
@@ -2004,17 +1764,14 @@
       <c r="C79">
         <v>24.95</v>
       </c>
-      <c r="D79" t="s">
-        <v>4</v>
+      <c r="D79">
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>450241</v>
       </c>
@@ -2024,17 +1781,14 @@
       <c r="C80">
         <v>26.26</v>
       </c>
-      <c r="D80" t="s">
-        <v>4</v>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>450241</v>
       </c>
@@ -2044,17 +1798,14 @@
       <c r="C81">
         <v>23.01</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
         <v>4</v>
       </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>450241</v>
       </c>
@@ -2064,17 +1815,14 @@
       <c r="C82">
         <v>27.97</v>
       </c>
-      <c r="D82" t="s">
-        <v>4</v>
+      <c r="D82">
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>450241</v>
       </c>
@@ -2084,17 +1832,14 @@
       <c r="C83">
         <v>25.99</v>
       </c>
-      <c r="D83" t="s">
-        <v>4</v>
+      <c r="D83">
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>450348</v>
       </c>
@@ -2104,17 +1849,14 @@
       <c r="C84">
         <v>23.3</v>
       </c>
-      <c r="D84" t="s">
-        <v>4</v>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>450348</v>
       </c>
@@ -2124,17 +1866,14 @@
       <c r="C85">
         <v>20.66</v>
       </c>
-      <c r="D85" t="s">
-        <v>4</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>450348</v>
       </c>
@@ -2144,17 +1883,14 @@
       <c r="C86">
         <v>20.11</v>
       </c>
-      <c r="D86" t="s">
-        <v>4</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>450348</v>
       </c>
@@ -2164,17 +1900,14 @@
       <c r="C87">
         <v>23.53</v>
       </c>
-      <c r="D87" t="s">
-        <v>4</v>
+      <c r="D87">
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>450348</v>
       </c>
@@ -2184,17 +1917,14 @@
       <c r="C88">
         <v>22.99</v>
       </c>
-      <c r="D88" t="s">
-        <v>4</v>
+      <c r="D88">
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>450348</v>
       </c>
@@ -2204,17 +1934,14 @@
       <c r="C89">
         <v>27.07</v>
       </c>
-      <c r="D89" t="s">
-        <v>4</v>
+      <c r="D89">
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>450348</v>
       </c>
@@ -2224,17 +1951,14 @@
       <c r="C90">
         <v>26.34</v>
       </c>
-      <c r="D90" t="s">
-        <v>4</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>450348</v>
       </c>
@@ -2244,17 +1968,14 @@
       <c r="C91">
         <v>23.87</v>
       </c>
-      <c r="D91" t="s">
-        <v>4</v>
+      <c r="D91">
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>450348</v>
       </c>
@@ -2264,17 +1985,14 @@
       <c r="C92">
         <v>27.28</v>
       </c>
-      <c r="D92" t="s">
-        <v>4</v>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>451152</v>
       </c>
@@ -2284,17 +2002,14 @@
       <c r="C93">
         <v>19.82</v>
       </c>
-      <c r="D93" t="s">
-        <v>4</v>
+      <c r="D93">
+        <v>1</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>451152</v>
       </c>
@@ -2304,17 +2019,14 @@
       <c r="C94">
         <v>18.190000000000001</v>
       </c>
-      <c r="D94" t="s">
-        <v>4</v>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>451152</v>
       </c>
@@ -2324,17 +2036,14 @@
       <c r="C95">
         <v>17.34</v>
       </c>
-      <c r="D95" t="s">
-        <v>4</v>
+      <c r="D95">
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>451152</v>
       </c>
@@ -2344,17 +2053,14 @@
       <c r="C96">
         <v>19.59</v>
       </c>
-      <c r="D96" t="s">
-        <v>4</v>
+      <c r="D96">
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>451152</v>
       </c>
@@ -2364,17 +2070,14 @@
       <c r="C97">
         <v>21.05</v>
       </c>
-      <c r="D97" t="s">
-        <v>4</v>
+      <c r="D97">
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>451152</v>
       </c>
@@ -2384,17 +2087,14 @@
       <c r="C98">
         <v>24.29</v>
       </c>
-      <c r="D98" t="s">
-        <v>4</v>
+      <c r="D98">
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>451152</v>
       </c>
@@ -2404,17 +2104,14 @@
       <c r="C99">
         <v>27.27</v>
       </c>
-      <c r="D99" t="s">
-        <v>4</v>
+      <c r="D99">
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>451152</v>
       </c>
@@ -2424,17 +2121,14 @@
       <c r="C100">
         <v>24.66</v>
       </c>
-      <c r="D100" t="s">
-        <v>4</v>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>451709</v>
       </c>
@@ -2444,17 +2138,14 @@
       <c r="C101">
         <v>24.27</v>
       </c>
-      <c r="D101" t="s">
-        <v>4</v>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>451709</v>
       </c>
@@ -2464,17 +2155,14 @@
       <c r="C102">
         <v>20.25</v>
       </c>
-      <c r="D102" t="s">
-        <v>4</v>
+      <c r="D102">
+        <v>0</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>451709</v>
       </c>
@@ -2484,17 +2172,14 @@
       <c r="C103">
         <v>20.77</v>
       </c>
-      <c r="D103" t="s">
-        <v>4</v>
+      <c r="D103">
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>451709</v>
       </c>
@@ -2504,17 +2189,14 @@
       <c r="C104">
         <v>22.01</v>
       </c>
-      <c r="D104" t="s">
-        <v>4</v>
+      <c r="D104">
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>451709</v>
       </c>
@@ -2524,17 +2206,14 @@
       <c r="C105">
         <v>21.5</v>
       </c>
-      <c r="D105" t="s">
-        <v>4</v>
+      <c r="D105">
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>451709</v>
       </c>
@@ -2544,17 +2223,14 @@
       <c r="C106">
         <v>20.63</v>
       </c>
-      <c r="D106" t="s">
-        <v>4</v>
+      <c r="D106">
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>451709</v>
       </c>
@@ -2564,17 +2240,14 @@
       <c r="C107">
         <v>25.64</v>
       </c>
-      <c r="D107" t="s">
-        <v>4</v>
+      <c r="D107">
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>453058</v>
       </c>
@@ -2584,17 +2257,14 @@
       <c r="C108">
         <v>21.13</v>
       </c>
-      <c r="D108" t="s">
-        <v>4</v>
+      <c r="D108">
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>453058</v>
       </c>
@@ -2604,17 +2274,14 @@
       <c r="C109">
         <v>19.559999999999999</v>
       </c>
-      <c r="D109" t="s">
-        <v>4</v>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>453058</v>
       </c>
@@ -2624,17 +2291,14 @@
       <c r="C110">
         <v>23.81</v>
       </c>
-      <c r="D110" t="s">
-        <v>4</v>
+      <c r="D110">
+        <v>1</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>453058</v>
       </c>
@@ -2644,17 +2308,14 @@
       <c r="C111">
         <v>25.62</v>
       </c>
-      <c r="D111" t="s">
-        <v>4</v>
+      <c r="D111">
+        <v>0</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>453058</v>
       </c>
@@ -2664,17 +2325,14 @@
       <c r="C112">
         <v>27.5</v>
       </c>
-      <c r="D112" t="s">
-        <v>4</v>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>453058</v>
       </c>
@@ -2684,17 +2342,14 @@
       <c r="C113">
         <v>22.67</v>
       </c>
-      <c r="D113" t="s">
-        <v>4</v>
+      <c r="D113">
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>459597</v>
       </c>
@@ -2704,17 +2359,14 @@
       <c r="C114">
         <v>25.47</v>
       </c>
-      <c r="D114" t="s">
-        <v>4</v>
+      <c r="D114">
+        <v>0</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>459597</v>
       </c>
@@ -2724,17 +2376,14 @@
       <c r="C115">
         <v>26.01</v>
       </c>
-      <c r="D115" t="s">
-        <v>4</v>
+      <c r="D115">
+        <v>0</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>459597</v>
       </c>
@@ -2744,17 +2393,14 @@
       <c r="C116">
         <v>22.82</v>
       </c>
-      <c r="D116" t="s">
-        <v>4</v>
+      <c r="D116">
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>459597</v>
       </c>
@@ -2764,17 +2410,14 @@
       <c r="C117">
         <v>23.37</v>
       </c>
-      <c r="D117" t="s">
-        <v>4</v>
+      <c r="D117">
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>459597</v>
       </c>
@@ -2784,17 +2427,14 @@
       <c r="C118">
         <v>23.85</v>
       </c>
-      <c r="D118" t="s">
-        <v>4</v>
+      <c r="D118">
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>459597</v>
       </c>
@@ -2804,17 +2444,14 @@
       <c r="C119">
         <v>23.69</v>
       </c>
-      <c r="D119" t="s">
-        <v>4</v>
+      <c r="D119">
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>471467</v>
       </c>
@@ -2824,17 +2461,14 @@
       <c r="C120">
         <v>15.84</v>
       </c>
-      <c r="D120" t="s">
-        <v>4</v>
+      <c r="D120">
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>471467</v>
       </c>
@@ -2844,17 +2478,14 @@
       <c r="C121">
         <v>16.010000000000002</v>
       </c>
-      <c r="D121" t="s">
-        <v>4</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>471467</v>
       </c>
@@ -2864,17 +2495,14 @@
       <c r="C122">
         <v>17.41</v>
       </c>
-      <c r="D122" t="s">
-        <v>4</v>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>471467</v>
       </c>
@@ -2884,17 +2512,14 @@
       <c r="C123">
         <v>20.13</v>
       </c>
-      <c r="D123" t="s">
-        <v>4</v>
+      <c r="D123">
+        <v>1</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>471467</v>
       </c>
@@ -2904,17 +2529,14 @@
       <c r="C124">
         <v>22.37</v>
       </c>
-      <c r="D124" t="s">
-        <v>4</v>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>2</v>
-      </c>
-      <c r="F124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>471467</v>
       </c>
@@ -2924,17 +2546,14 @@
       <c r="C125">
         <v>25.51</v>
       </c>
-      <c r="D125" t="s">
-        <v>4</v>
+      <c r="D125">
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>2</v>
-      </c>
-      <c r="F125">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>471467</v>
       </c>
@@ -2944,17 +2563,14 @@
       <c r="C126">
         <v>23.35</v>
       </c>
-      <c r="D126" t="s">
-        <v>4</v>
+      <c r="D126">
+        <v>0</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>471467</v>
       </c>
@@ -2964,17 +2580,14 @@
       <c r="C127">
         <v>23.11</v>
       </c>
-      <c r="D127" t="s">
-        <v>4</v>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>2</v>
-      </c>
-      <c r="F127">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>471467</v>
       </c>
@@ -2984,17 +2597,14 @@
       <c r="C128">
         <v>25.61</v>
       </c>
-      <c r="D128" t="s">
-        <v>4</v>
+      <c r="D128">
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>471588</v>
       </c>
@@ -3004,17 +2614,14 @@
       <c r="C129">
         <v>20.58</v>
       </c>
-      <c r="D129" t="s">
-        <v>4</v>
+      <c r="D129">
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>4</v>
-      </c>
-      <c r="F129">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>471588</v>
       </c>
@@ -3024,17 +2631,14 @@
       <c r="C130">
         <v>21.54</v>
       </c>
-      <c r="D130" t="s">
-        <v>4</v>
+      <c r="D130">
+        <v>1</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>471588</v>
       </c>
@@ -3044,17 +2648,14 @@
       <c r="C131">
         <v>20.399999999999999</v>
       </c>
-      <c r="D131" t="s">
-        <v>4</v>
+      <c r="D131">
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>3</v>
-      </c>
-      <c r="F131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>471588</v>
       </c>
@@ -3064,17 +2665,14 @@
       <c r="C132">
         <v>25.35</v>
       </c>
-      <c r="D132" t="s">
-        <v>4</v>
+      <c r="D132">
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>471588</v>
       </c>
@@ -3084,17 +2682,14 @@
       <c r="C133">
         <v>26.8</v>
       </c>
-      <c r="D133" t="s">
-        <v>4</v>
+      <c r="D133">
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>471588</v>
       </c>
@@ -3104,17 +2699,14 @@
       <c r="C134">
         <v>25.1</v>
       </c>
-      <c r="D134" t="s">
-        <v>4</v>
+      <c r="D134">
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>2</v>
-      </c>
-      <c r="F134">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>471588</v>
       </c>
@@ -3124,18 +2716,15 @@
       <c r="C135">
         <v>27.37</v>
       </c>
-      <c r="D135" t="s">
-        <v>4</v>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D137">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C137">
     <sortCondition ref="A2:A137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
